--- a/data/pca/factorExposure/factorExposure_2010-06-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-02.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01266993432798506</v>
+        <v>-0.01701074229697734</v>
       </c>
       <c r="C2">
-        <v>-0.002405362913176136</v>
+        <v>-0.0008264082066764003</v>
       </c>
       <c r="D2">
-        <v>0.01287853013954839</v>
+        <v>0.00881796983861797</v>
       </c>
       <c r="E2">
-        <v>-0.03335225096357265</v>
+        <v>0.002382639892933062</v>
       </c>
       <c r="F2">
-        <v>-0.01126569101555304</v>
+        <v>-0.01280240750703729</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1208692482856503</v>
+        <v>-0.09497978846272641</v>
       </c>
       <c r="C4">
-        <v>-0.09778993042768178</v>
+        <v>-0.01752852149338781</v>
       </c>
       <c r="D4">
-        <v>-0.0124129746175302</v>
+        <v>0.08069726098122264</v>
       </c>
       <c r="E4">
-        <v>0.04567035844961009</v>
+        <v>-0.02646460173339799</v>
       </c>
       <c r="F4">
-        <v>-0.1757430936077108</v>
+        <v>0.03582520171318299</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1328500429948565</v>
+        <v>-0.1522478013839074</v>
       </c>
       <c r="C6">
-        <v>-0.06660861164638883</v>
+        <v>-0.02454004903360449</v>
       </c>
       <c r="D6">
-        <v>-0.005474054421710076</v>
+        <v>-0.02340772505339473</v>
       </c>
       <c r="E6">
-        <v>0.03975546500513859</v>
+        <v>-0.01477882242122592</v>
       </c>
       <c r="F6">
-        <v>-0.05550035750747722</v>
+        <v>0.03938734667353555</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06730525191495981</v>
+        <v>-0.06168411669496295</v>
       </c>
       <c r="C7">
-        <v>-0.07489241855512441</v>
+        <v>8.762363617834125e-05</v>
       </c>
       <c r="D7">
-        <v>0.01241344619514722</v>
+        <v>0.05194179160071216</v>
       </c>
       <c r="E7">
-        <v>-0.0008477037257239188</v>
+        <v>-0.01320396788334786</v>
       </c>
       <c r="F7">
-        <v>-0.008491303017872556</v>
+        <v>0.05596286807287183</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04402716279215574</v>
+        <v>-0.05941220323360481</v>
       </c>
       <c r="C8">
-        <v>-0.02535939962641593</v>
+        <v>0.01272240295957652</v>
       </c>
       <c r="D8">
-        <v>-0.00591323332925432</v>
+        <v>0.02774197956737919</v>
       </c>
       <c r="E8">
-        <v>0.07814463525312622</v>
+        <v>-0.0122604360599234</v>
       </c>
       <c r="F8">
-        <v>-0.1442997595689417</v>
+        <v>-0.02534903527031136</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08460110026849582</v>
+        <v>-0.07233634616738666</v>
       </c>
       <c r="C9">
-        <v>-0.07142326069428913</v>
+        <v>-0.01372696013990646</v>
       </c>
       <c r="D9">
-        <v>-0.02778042942331781</v>
+        <v>0.08070597455299526</v>
       </c>
       <c r="E9">
-        <v>0.03709182271861645</v>
+        <v>-0.0213540454076402</v>
       </c>
       <c r="F9">
-        <v>-0.1355979840624497</v>
+        <v>0.05734157652747419</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1353408308699496</v>
+        <v>-0.09259587513889161</v>
       </c>
       <c r="C10">
-        <v>0.161864017258163</v>
+        <v>-0.01509006189638219</v>
       </c>
       <c r="D10">
-        <v>0.01571310874816624</v>
+        <v>-0.172598050234861</v>
       </c>
       <c r="E10">
-        <v>-0.03290322017615458</v>
+        <v>0.03454427045833551</v>
       </c>
       <c r="F10">
-        <v>0.01434632400932714</v>
+        <v>-0.05187884725285322</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06536025204278359</v>
+        <v>-0.08821412536978221</v>
       </c>
       <c r="C11">
-        <v>-0.0620701013483901</v>
+        <v>-0.01286771862727991</v>
       </c>
       <c r="D11">
-        <v>-0.0435497920201162</v>
+        <v>0.1114713380291006</v>
       </c>
       <c r="E11">
-        <v>0.001941213654859838</v>
+        <v>-0.04219811317168684</v>
       </c>
       <c r="F11">
-        <v>-0.07423108510779544</v>
+        <v>0.02513088583068506</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06626001577750189</v>
+        <v>-0.09335197977352944</v>
       </c>
       <c r="C12">
-        <v>-0.0703660070060835</v>
+        <v>-0.01083534654877017</v>
       </c>
       <c r="D12">
-        <v>-0.05507384137229975</v>
+        <v>0.1187433477799878</v>
       </c>
       <c r="E12">
-        <v>0.03757210096110052</v>
+        <v>-0.0406175764911581</v>
       </c>
       <c r="F12">
-        <v>-0.06219352516620184</v>
+        <v>0.02760509029939266</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03686928472425743</v>
+        <v>-0.04406429513304064</v>
       </c>
       <c r="C13">
-        <v>-0.04145772005145013</v>
+        <v>-0.004610278150456863</v>
       </c>
       <c r="D13">
-        <v>0.02019805264564243</v>
+        <v>0.04383320753098686</v>
       </c>
       <c r="E13">
-        <v>0.01026103834944942</v>
+        <v>0.01468738448235207</v>
       </c>
       <c r="F13">
-        <v>-0.02580610998000729</v>
+        <v>0.01846861955093713</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03398401176413518</v>
+        <v>-0.02188037245453747</v>
       </c>
       <c r="C14">
-        <v>-0.03464399220479156</v>
+        <v>-0.01492879003118409</v>
       </c>
       <c r="D14">
-        <v>-0.02120990033518931</v>
+        <v>0.03198743516944905</v>
       </c>
       <c r="E14">
-        <v>0.02189819401246169</v>
+        <v>-0.01638039825700709</v>
       </c>
       <c r="F14">
-        <v>-0.04782140184244686</v>
+        <v>0.02172132064115638</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01924559551405837</v>
+        <v>-0.03266635831191424</v>
       </c>
       <c r="C15">
-        <v>-0.01750073637755059</v>
+        <v>-0.00577692141528205</v>
       </c>
       <c r="D15">
-        <v>0.0682026920088866</v>
+        <v>0.04379231219664369</v>
       </c>
       <c r="E15">
-        <v>-0.01373130935529939</v>
+        <v>-0.007937407626685761</v>
       </c>
       <c r="F15">
-        <v>-0.02573298951172262</v>
+        <v>0.03290302541006318</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07357466791124705</v>
+        <v>-0.07527890754300177</v>
       </c>
       <c r="C16">
-        <v>-0.07696102294867106</v>
+        <v>-0.004646845082681465</v>
       </c>
       <c r="D16">
-        <v>-0.04124752314131966</v>
+        <v>0.1155244728845802</v>
       </c>
       <c r="E16">
-        <v>0.01697955208501485</v>
+        <v>-0.05733385826996306</v>
       </c>
       <c r="F16">
-        <v>-0.0674927457102184</v>
+        <v>0.03428360606666045</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02073728829136242</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003746703111255909</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02180683462519335</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01014113606484204</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02498253612902396</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04799671711504589</v>
+        <v>-0.06196143939445784</v>
       </c>
       <c r="C20">
-        <v>-0.02505595656531405</v>
+        <v>-0.002318422617513357</v>
       </c>
       <c r="D20">
-        <v>0.03062492532670685</v>
+        <v>0.07085742725296125</v>
       </c>
       <c r="E20">
-        <v>0.05565281146317473</v>
+        <v>-0.0516709356674561</v>
       </c>
       <c r="F20">
-        <v>-0.04482300325489803</v>
+        <v>0.03045560904399389</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02445933831921229</v>
+        <v>-0.0391807882927308</v>
       </c>
       <c r="C21">
-        <v>-0.02378493316665338</v>
+        <v>-0.007786328076035481</v>
       </c>
       <c r="D21">
-        <v>-0.01801387819799182</v>
+        <v>0.03397839524212286</v>
       </c>
       <c r="E21">
-        <v>0.02078047863851709</v>
+        <v>0.01166321478792573</v>
       </c>
       <c r="F21">
-        <v>-0.05205356236294106</v>
+        <v>-0.01791071263183358</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0567373260219351</v>
+        <v>-0.04318065732129505</v>
       </c>
       <c r="C22">
-        <v>-0.02896568482849415</v>
+        <v>-0.0004483500528412037</v>
       </c>
       <c r="D22">
-        <v>0.640464807592502</v>
+        <v>0.002400137449967941</v>
       </c>
       <c r="E22">
-        <v>0.1261426751320104</v>
+        <v>-0.03275635412630744</v>
       </c>
       <c r="F22">
-        <v>0.09203233748356614</v>
+        <v>-0.01435461721503322</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05761720010347338</v>
+        <v>-0.04326838611281463</v>
       </c>
       <c r="C23">
-        <v>-0.03112340981124205</v>
+        <v>-0.0004808668083658023</v>
       </c>
       <c r="D23">
-        <v>0.642819347082197</v>
+        <v>0.002594886952800233</v>
       </c>
       <c r="E23">
-        <v>0.1284634240855475</v>
+        <v>-0.03316914087726694</v>
       </c>
       <c r="F23">
-        <v>0.08705123006897721</v>
+        <v>-0.01382543067128498</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0735256608547752</v>
+        <v>-0.081749851787264</v>
       </c>
       <c r="C24">
-        <v>-0.07582351244884353</v>
+        <v>-0.004824515943275394</v>
       </c>
       <c r="D24">
-        <v>-0.03258263131977299</v>
+        <v>0.1154467862620932</v>
       </c>
       <c r="E24">
-        <v>0.002235913071172684</v>
+        <v>-0.04573531475247138</v>
       </c>
       <c r="F24">
-        <v>-0.07095759244433236</v>
+        <v>0.02623949684030106</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07155731653351426</v>
+        <v>-0.08562136248322948</v>
       </c>
       <c r="C25">
-        <v>-0.05763742611937349</v>
+        <v>-0.006745865142768845</v>
       </c>
       <c r="D25">
-        <v>-0.05915907912491303</v>
+        <v>0.1020806267008248</v>
       </c>
       <c r="E25">
-        <v>0.01569274510200204</v>
+        <v>-0.02768263880254259</v>
       </c>
       <c r="F25">
-        <v>-0.07554363845627866</v>
+        <v>0.03469555402706716</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04118534604561855</v>
+        <v>-0.05643709314683289</v>
       </c>
       <c r="C26">
-        <v>0.001803342251314867</v>
+        <v>-0.01558544497497436</v>
       </c>
       <c r="D26">
-        <v>0.01174117098822337</v>
+        <v>0.03300355183260165</v>
       </c>
       <c r="E26">
-        <v>0.08644030483747446</v>
+        <v>-0.0233286622152991</v>
       </c>
       <c r="F26">
-        <v>-0.03738038642356267</v>
+        <v>-0.005263366416287472</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1628463986689401</v>
+        <v>-0.1383213434230412</v>
       </c>
       <c r="C28">
-        <v>0.27106817366235</v>
+        <v>-0.01244687030335561</v>
       </c>
       <c r="D28">
-        <v>-0.0088475114264227</v>
+        <v>-0.2713036112230539</v>
       </c>
       <c r="E28">
-        <v>0.02755573000283611</v>
+        <v>0.06714779790619421</v>
       </c>
       <c r="F28">
-        <v>-0.01942236596847389</v>
+        <v>0.03687268825287995</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03463961713290471</v>
+        <v>-0.02733837869597436</v>
       </c>
       <c r="C29">
-        <v>-0.03288545972335583</v>
+        <v>-0.009255819119820657</v>
       </c>
       <c r="D29">
-        <v>-0.02108725990553578</v>
+        <v>0.03037632490280884</v>
       </c>
       <c r="E29">
-        <v>0.02693511820426522</v>
+        <v>-0.008992773822166299</v>
       </c>
       <c r="F29">
-        <v>-0.04939809711262304</v>
+        <v>-0.009097501107969063</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09325102294464858</v>
+        <v>-0.0648291483864215</v>
       </c>
       <c r="C30">
-        <v>-0.06011789405463498</v>
+        <v>-0.006514441597053295</v>
       </c>
       <c r="D30">
-        <v>-0.03798752934123418</v>
+        <v>0.07904527548842642</v>
       </c>
       <c r="E30">
-        <v>0.2837045294999579</v>
+        <v>-0.02222848614388732</v>
       </c>
       <c r="F30">
-        <v>-0.03812542145410119</v>
+        <v>0.1173938809576114</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03189534672480285</v>
+        <v>-0.0489855342131753</v>
       </c>
       <c r="C31">
-        <v>-0.06780881759577569</v>
+        <v>-0.01520191278959114</v>
       </c>
       <c r="D31">
-        <v>-0.0006088179563913114</v>
+        <v>0.02909358165510899</v>
       </c>
       <c r="E31">
-        <v>0.006797762121126935</v>
+        <v>-0.02673473008118804</v>
       </c>
       <c r="F31">
-        <v>-0.04230710573793217</v>
+        <v>-0.002312839149511261</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05480372442158467</v>
+        <v>-0.04930476077362826</v>
       </c>
       <c r="C32">
-        <v>-0.02102217565542488</v>
+        <v>-0.0005726771502019867</v>
       </c>
       <c r="D32">
-        <v>-0.05430274875586418</v>
+        <v>0.03056847830148901</v>
       </c>
       <c r="E32">
-        <v>-0.007694466777261106</v>
+        <v>-0.02679026947492908</v>
       </c>
       <c r="F32">
-        <v>-0.0800962096049072</v>
+        <v>0.00202940187881607</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09285304886096565</v>
+        <v>-0.09181634096099148</v>
       </c>
       <c r="C33">
-        <v>-0.07614702517662472</v>
+        <v>-0.01010614617692902</v>
       </c>
       <c r="D33">
-        <v>-0.03272704265702737</v>
+        <v>0.09138374558426812</v>
       </c>
       <c r="E33">
-        <v>0.03477915791296444</v>
+        <v>-0.04449839212782558</v>
       </c>
       <c r="F33">
-        <v>-0.03028434480166806</v>
+        <v>0.04069161025622507</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06712097566710397</v>
+        <v>-0.0693663720649042</v>
       </c>
       <c r="C34">
-        <v>-0.06290894947129601</v>
+        <v>-0.01282750813430957</v>
       </c>
       <c r="D34">
-        <v>-0.04177634737975964</v>
+        <v>0.09597418555106285</v>
       </c>
       <c r="E34">
-        <v>0.02243793463120675</v>
+        <v>-0.02947990851088537</v>
       </c>
       <c r="F34">
-        <v>-0.08147154992937834</v>
+        <v>0.04908683429127737</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01644263113164179</v>
+        <v>-0.02450013603369346</v>
       </c>
       <c r="C35">
-        <v>-0.01238537284632677</v>
+        <v>-0.002690715519222932</v>
       </c>
       <c r="D35">
-        <v>0.002352428630789719</v>
+        <v>0.009938736276016102</v>
       </c>
       <c r="E35">
-        <v>0.02473032935569476</v>
+        <v>-0.01116274772180443</v>
       </c>
       <c r="F35">
-        <v>-0.03365593490943589</v>
+        <v>0.01144317363487033</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0235635456477566</v>
+        <v>-0.02511519048361682</v>
       </c>
       <c r="C36">
-        <v>-0.01377080339937093</v>
+        <v>-0.007295313372651646</v>
       </c>
       <c r="D36">
-        <v>0.009693875876598684</v>
+        <v>0.03769463408160595</v>
       </c>
       <c r="E36">
-        <v>0.04037468323184216</v>
+        <v>-0.01533683379414214</v>
       </c>
       <c r="F36">
-        <v>-0.05248597883903473</v>
+        <v>0.009061468719815209</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01785964684738992</v>
+        <v>-0.002539866494763845</v>
       </c>
       <c r="C38">
-        <v>-0.0407617525932137</v>
+        <v>-0.0004387242440636693</v>
       </c>
       <c r="D38">
-        <v>0.02471992596399742</v>
+        <v>0.002197622663144919</v>
       </c>
       <c r="E38">
-        <v>0.01434851001762235</v>
+        <v>-0.003085045120845933</v>
       </c>
       <c r="F38">
-        <v>0.1105021489880154</v>
+        <v>-0.002290840948183313</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.104344879367258</v>
+        <v>-0.1110164392095989</v>
       </c>
       <c r="C39">
-        <v>-0.1003143653857005</v>
+        <v>-0.01858443542046324</v>
       </c>
       <c r="D39">
-        <v>-0.1392512872741894</v>
+        <v>0.1476380548288641</v>
       </c>
       <c r="E39">
-        <v>0.1471547114426267</v>
+        <v>-0.05221449583239335</v>
       </c>
       <c r="F39">
-        <v>-0.04203238572318969</v>
+        <v>0.03684011270135781</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02586384328312927</v>
+        <v>-0.03757155464607353</v>
       </c>
       <c r="C40">
-        <v>-0.07002946777204298</v>
+        <v>-0.007639154996227228</v>
       </c>
       <c r="D40">
-        <v>0.02616621176532151</v>
+        <v>0.03002007027144397</v>
       </c>
       <c r="E40">
-        <v>-0.03267075576620451</v>
+        <v>-0.002310640196830877</v>
       </c>
       <c r="F40">
-        <v>-0.03126353629641</v>
+        <v>-0.01921609900810643</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03754457878040681</v>
+        <v>-0.02678105535659833</v>
       </c>
       <c r="C41">
-        <v>-0.03309800547534825</v>
+        <v>-0.006903794693012763</v>
       </c>
       <c r="D41">
-        <v>-0.01775393235221446</v>
+        <v>0.01071325855843703</v>
       </c>
       <c r="E41">
-        <v>0.02491669010919809</v>
+        <v>-0.01154653373138658</v>
       </c>
       <c r="F41">
-        <v>-0.004220958394967552</v>
+        <v>-0.01156554357646201</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04444916976457676</v>
+        <v>-0.04265019287982078</v>
       </c>
       <c r="C43">
-        <v>-0.05045187219572035</v>
+        <v>-0.007210964995531137</v>
       </c>
       <c r="D43">
-        <v>0.008535138301604182</v>
+        <v>0.02079044598034507</v>
       </c>
       <c r="E43">
-        <v>0.04772453187363147</v>
+        <v>-0.02555176560574866</v>
       </c>
       <c r="F43">
-        <v>-0.002271978841329952</v>
+        <v>-0.01139422837456654</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09860841129674998</v>
+        <v>-0.07328938208304873</v>
       </c>
       <c r="C44">
-        <v>-0.1051444240449805</v>
+        <v>-0.02264646437998503</v>
       </c>
       <c r="D44">
-        <v>0.07993832740245096</v>
+        <v>0.09809806237826754</v>
       </c>
       <c r="E44">
-        <v>0.04267058596853782</v>
+        <v>-0.06514668582985951</v>
       </c>
       <c r="F44">
-        <v>-0.07198526325537197</v>
+        <v>0.1753530437774781</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03756082218501536</v>
+        <v>-0.02375939151001072</v>
       </c>
       <c r="C46">
-        <v>-0.03965317986171667</v>
+        <v>-0.004227504465570126</v>
       </c>
       <c r="D46">
-        <v>0.03932978564042084</v>
+        <v>0.01197529835147417</v>
       </c>
       <c r="E46">
-        <v>-0.005159717710313141</v>
+        <v>-0.02123638962550988</v>
       </c>
       <c r="F46">
-        <v>-0.03234618602806524</v>
+        <v>-0.0003747334691704209</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04710539782702494</v>
+        <v>-0.05332355294112467</v>
       </c>
       <c r="C47">
-        <v>-0.04691911934669175</v>
+        <v>-0.003523098406629689</v>
       </c>
       <c r="D47">
-        <v>0.002110143459861174</v>
+        <v>0.01317314245877851</v>
       </c>
       <c r="E47">
-        <v>0.006137606157766538</v>
+        <v>-0.02339770978616253</v>
       </c>
       <c r="F47">
-        <v>-0.01451985887807205</v>
+        <v>-0.04706764108843553</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04501013353561469</v>
+        <v>-0.04827823495352072</v>
       </c>
       <c r="C48">
-        <v>-0.01717616508092645</v>
+        <v>-0.003363047071609116</v>
       </c>
       <c r="D48">
-        <v>-0.0141988132340501</v>
+        <v>0.04532400827126515</v>
       </c>
       <c r="E48">
-        <v>0.004665294967231557</v>
+        <v>0.008097764958189795</v>
       </c>
       <c r="F48">
-        <v>-0.07110154839548395</v>
+        <v>0.01504615393809454</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.226349886967606</v>
+        <v>-0.2042499196948249</v>
       </c>
       <c r="C49">
-        <v>-0.02759282351870785</v>
+        <v>-0.01699145734351397</v>
       </c>
       <c r="D49">
-        <v>-0.0251520747354582</v>
+        <v>-0.009630936028585738</v>
       </c>
       <c r="E49">
-        <v>-0.2010436821506404</v>
+        <v>-0.04047252452420095</v>
       </c>
       <c r="F49">
-        <v>0.2651940083866736</v>
+        <v>0.03167219954060143</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0421348171963164</v>
+        <v>-0.04887408521262393</v>
       </c>
       <c r="C50">
-        <v>-0.04767140496280788</v>
+        <v>-0.01123135540104423</v>
       </c>
       <c r="D50">
-        <v>-0.01748462886246119</v>
+        <v>0.02635219225010292</v>
       </c>
       <c r="E50">
-        <v>0.04887683292798827</v>
+        <v>-0.02862955189648702</v>
       </c>
       <c r="F50">
-        <v>-0.0325241509957727</v>
+        <v>0.008151738797846171</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02479692994629932</v>
+        <v>-0.003193909198770914</v>
       </c>
       <c r="C51">
-        <v>0.004813539552564868</v>
+        <v>-0.0007583859922266673</v>
       </c>
       <c r="D51">
-        <v>0.001773412272952514</v>
+        <v>-0.002124559084762414</v>
       </c>
       <c r="E51">
-        <v>-0.04059345417985381</v>
+        <v>-0.0008414238465291176</v>
       </c>
       <c r="F51">
-        <v>0.02047078762779952</v>
+        <v>0.004145617520095259</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.05630722441656973</v>
+        <v>-0.1430076290324719</v>
       </c>
       <c r="C52">
-        <v>-0.03709669201322836</v>
+        <v>-0.01284923630702786</v>
       </c>
       <c r="D52">
-        <v>-0.03177628906058548</v>
+        <v>0.04974486927069032</v>
       </c>
       <c r="E52">
-        <v>0.04757837869758152</v>
+        <v>-0.01895939042683952</v>
       </c>
       <c r="F52">
-        <v>0.02082822483422239</v>
+        <v>0.03520008939752087</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1546061019974617</v>
+        <v>-0.173258270918695</v>
       </c>
       <c r="C53">
-        <v>-0.06972628450955937</v>
+        <v>-0.01574578339157739</v>
       </c>
       <c r="D53">
-        <v>0.01170451328679032</v>
+        <v>0.01537770860502395</v>
       </c>
       <c r="E53">
-        <v>0.03240798437515772</v>
+        <v>-0.03781787731774882</v>
       </c>
       <c r="F53">
-        <v>0.08545566492196714</v>
+        <v>0.06626027964292003</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0564473903523135</v>
+        <v>-0.02328491978681119</v>
       </c>
       <c r="C54">
-        <v>-0.05900986578951129</v>
+        <v>-0.01284227629475681</v>
       </c>
       <c r="D54">
-        <v>-0.001532846776387092</v>
+        <v>0.03225642463299572</v>
       </c>
       <c r="E54">
-        <v>0.04624131815832407</v>
+        <v>-0.0133991197261663</v>
       </c>
       <c r="F54">
-        <v>-0.1423262658158854</v>
+        <v>-0.002907137873115701</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08082210583708861</v>
+        <v>-0.1143771720058431</v>
       </c>
       <c r="C55">
-        <v>-0.05568854577566308</v>
+        <v>-0.01451726158232202</v>
       </c>
       <c r="D55">
-        <v>-0.0324292812984456</v>
+        <v>0.01436450752075016</v>
       </c>
       <c r="E55">
-        <v>-0.006953710008349709</v>
+        <v>-0.03083675559344371</v>
       </c>
       <c r="F55">
-        <v>0.01919487918630958</v>
+        <v>0.04869906137713789</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1433637481054222</v>
+        <v>-0.1775333339422066</v>
       </c>
       <c r="C56">
-        <v>-0.09657079306287268</v>
+        <v>-0.01326622019603925</v>
       </c>
       <c r="D56">
-        <v>-0.02191641867268442</v>
+        <v>0.009099322290451224</v>
       </c>
       <c r="E56">
-        <v>-0.005937394026329442</v>
+        <v>-0.04257314353772658</v>
       </c>
       <c r="F56">
-        <v>0.07344350506561109</v>
+        <v>0.03755722200511809</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04321352562512353</v>
+        <v>-0.04661249782188576</v>
       </c>
       <c r="C58">
-        <v>-0.03232227934397246</v>
+        <v>-0.003005508349947177</v>
       </c>
       <c r="D58">
-        <v>0.03823103922951632</v>
+        <v>0.06412522868361316</v>
       </c>
       <c r="E58">
-        <v>0.01388307988173255</v>
+        <v>-0.0172636361083413</v>
       </c>
       <c r="F58">
-        <v>0.006260325571379113</v>
+        <v>-0.0489308090389139</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.22530475393356</v>
+        <v>-0.1696111167691179</v>
       </c>
       <c r="C59">
-        <v>0.2251370562283048</v>
+        <v>-0.0142928303650269</v>
       </c>
       <c r="D59">
-        <v>-0.0409903231382404</v>
+        <v>-0.2314367297897389</v>
       </c>
       <c r="E59">
-        <v>-0.03296113632367711</v>
+        <v>0.04846374951509225</v>
       </c>
       <c r="F59">
-        <v>-0.0454203427763911</v>
+        <v>-0.03258706922770687</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2271149403256344</v>
+        <v>-0.2388265469731685</v>
       </c>
       <c r="C60">
-        <v>-0.1430338982581952</v>
+        <v>0.004255257607956414</v>
       </c>
       <c r="D60">
-        <v>-0.06936114616119377</v>
+        <v>0.04924770157623298</v>
       </c>
       <c r="E60">
-        <v>-0.0893566611198552</v>
+        <v>-0.01063816786538358</v>
       </c>
       <c r="F60">
-        <v>0.1295979661757363</v>
+        <v>-0.0390346336595413</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1084891124567202</v>
+        <v>-0.08573653269052593</v>
       </c>
       <c r="C61">
-        <v>-0.0786994852136588</v>
+        <v>-0.01448227065960693</v>
       </c>
       <c r="D61">
-        <v>-0.08264400487420517</v>
+        <v>0.1086988524688744</v>
       </c>
       <c r="E61">
-        <v>0.1062555542421702</v>
+        <v>-0.03442485482378681</v>
       </c>
       <c r="F61">
-        <v>-0.06880606818722775</v>
+        <v>0.02112249873098848</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1357920487041201</v>
+        <v>-0.1695743330837604</v>
       </c>
       <c r="C62">
-        <v>-0.07815070990120196</v>
+        <v>-0.0171253125333785</v>
       </c>
       <c r="D62">
-        <v>0.001416421117294243</v>
+        <v>0.01272665250972913</v>
       </c>
       <c r="E62">
-        <v>-0.01237358358364305</v>
+        <v>-0.03946043624684641</v>
       </c>
       <c r="F62">
-        <v>0.09439328885373598</v>
+        <v>0.01812417549571809</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04998220453420577</v>
+        <v>-0.04307207829281681</v>
       </c>
       <c r="C63">
-        <v>-0.02956041008399296</v>
+        <v>-0.004078662141949114</v>
       </c>
       <c r="D63">
-        <v>-0.00975469742428681</v>
+        <v>0.04799732308979796</v>
       </c>
       <c r="E63">
-        <v>0.04385306404497676</v>
+        <v>-0.0167295372406785</v>
       </c>
       <c r="F63">
-        <v>-0.05855970290214867</v>
+        <v>0.01065953415189396</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09251709166765933</v>
+        <v>-0.112319240186742</v>
       </c>
       <c r="C64">
-        <v>-0.04757344235990125</v>
+        <v>-0.01179354005113262</v>
       </c>
       <c r="D64">
-        <v>-0.005183068606842238</v>
+        <v>0.03971280538426689</v>
       </c>
       <c r="E64">
-        <v>0.06364948930468727</v>
+        <v>-0.01995314478131503</v>
       </c>
       <c r="F64">
-        <v>-0.01358263767700315</v>
+        <v>0.01898642843130955</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1229365914211149</v>
+        <v>-0.1440825862326011</v>
       </c>
       <c r="C65">
-        <v>-0.0577189281971275</v>
+        <v>-0.0311204420288676</v>
       </c>
       <c r="D65">
-        <v>-0.0222946598541958</v>
+        <v>-0.04604271627374316</v>
       </c>
       <c r="E65">
-        <v>0.08275462943757975</v>
+        <v>-0.003317582533909116</v>
       </c>
       <c r="F65">
-        <v>-0.03210010447697963</v>
+        <v>0.04287403807003148</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1206687378509778</v>
+        <v>-0.1330691809639699</v>
       </c>
       <c r="C66">
-        <v>-0.1299491639063175</v>
+        <v>-0.01617488828088576</v>
       </c>
       <c r="D66">
-        <v>-0.12730017987347</v>
+        <v>0.1349615643969695</v>
       </c>
       <c r="E66">
-        <v>0.134072307521216</v>
+        <v>-0.06071507830221685</v>
       </c>
       <c r="F66">
-        <v>0.00737921159886122</v>
+        <v>0.04145451929318105</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06659641407717183</v>
+        <v>-0.06456795206754291</v>
       </c>
       <c r="C67">
-        <v>-0.04564243294562353</v>
+        <v>-0.003933532370354628</v>
       </c>
       <c r="D67">
-        <v>0.03416240157995673</v>
+        <v>0.05450182084644331</v>
       </c>
       <c r="E67">
-        <v>0.006897647941175093</v>
+        <v>-0.02078219573768956</v>
       </c>
       <c r="F67">
-        <v>0.1037193668803314</v>
+        <v>-0.04187985835550784</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1365334498950121</v>
+        <v>-0.1119030148101665</v>
       </c>
       <c r="C68">
-        <v>0.2562447076338805</v>
+        <v>-0.02350722339799205</v>
       </c>
       <c r="D68">
-        <v>-0.02384651600394396</v>
+        <v>-0.2685163456435226</v>
       </c>
       <c r="E68">
-        <v>0.04341201165192524</v>
+        <v>0.0858423207481529</v>
       </c>
       <c r="F68">
-        <v>-0.03851340468824279</v>
+        <v>0.04335378013577657</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.05052576220541519</v>
+        <v>-0.04038532094903401</v>
       </c>
       <c r="C69">
-        <v>-0.02342927551380669</v>
+        <v>-0.001212370677961486</v>
       </c>
       <c r="D69">
-        <v>0.002985178906918166</v>
+        <v>0.009623150705209922</v>
       </c>
       <c r="E69">
-        <v>0.03501016762556698</v>
+        <v>-0.02591277788447472</v>
       </c>
       <c r="F69">
-        <v>0.007779642514665233</v>
+        <v>-0.01541749180043555</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04986000675935593</v>
+        <v>-0.06525227569820567</v>
       </c>
       <c r="C70">
-        <v>-0.04132342105964239</v>
+        <v>0.02741469282968855</v>
       </c>
       <c r="D70">
-        <v>-0.03274994912454247</v>
+        <v>0.02544447050566646</v>
       </c>
       <c r="E70">
-        <v>0.07799302326354207</v>
+        <v>0.04724430024203906</v>
       </c>
       <c r="F70">
-        <v>-0.05780686112684767</v>
+        <v>-0.3139559787161937</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.156720360074002</v>
+        <v>-0.1310638616155445</v>
       </c>
       <c r="C71">
-        <v>0.2681385433067022</v>
+        <v>-0.02761082820589663</v>
       </c>
       <c r="D71">
-        <v>-0.01858947141460118</v>
+        <v>-0.2848790327268221</v>
       </c>
       <c r="E71">
-        <v>0.06488236998820898</v>
+        <v>0.09316875176444191</v>
       </c>
       <c r="F71">
-        <v>-0.018256587207515</v>
+        <v>0.04578537997431173</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1345655029964668</v>
+        <v>-0.1377594696903013</v>
       </c>
       <c r="C72">
-        <v>-0.01971646696731412</v>
+        <v>-0.02405260892596477</v>
       </c>
       <c r="D72">
-        <v>-0.004172217216187895</v>
+        <v>0.004958476210219243</v>
       </c>
       <c r="E72">
-        <v>0.05587979238818487</v>
+        <v>-0.04288455792861182</v>
       </c>
       <c r="F72">
-        <v>0.01351230216613314</v>
+        <v>0.02344861435130641</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2179417213160588</v>
+        <v>-0.2065964525364058</v>
       </c>
       <c r="C73">
-        <v>-0.09096735749471095</v>
+        <v>-0.01119463046503508</v>
       </c>
       <c r="D73">
-        <v>-0.1123023066618609</v>
+        <v>0.01697356199933138</v>
       </c>
       <c r="E73">
-        <v>-0.193462620514784</v>
+        <v>-0.06640581827316652</v>
       </c>
       <c r="F73">
-        <v>0.48222184422392</v>
+        <v>0.0279060239496858</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1010196119317086</v>
+        <v>-0.09397789732019993</v>
       </c>
       <c r="C74">
-        <v>-0.09533524711296291</v>
+        <v>-0.01182892694653838</v>
       </c>
       <c r="D74">
-        <v>-0.009255827562319491</v>
+        <v>0.02470908625772065</v>
       </c>
       <c r="E74">
-        <v>0.05755339893706596</v>
+        <v>-0.05093920468886295</v>
       </c>
       <c r="F74">
-        <v>0.09685645953864817</v>
+        <v>0.04207028751700972</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09835082805711591</v>
+        <v>-0.1302904838629057</v>
       </c>
       <c r="C75">
-        <v>-0.07435993442701437</v>
+        <v>-0.02629444967653579</v>
       </c>
       <c r="D75">
-        <v>-0.00352441189383697</v>
+        <v>0.03446326619438388</v>
       </c>
       <c r="E75">
-        <v>-0.02268308849914564</v>
+        <v>-0.06132520238581637</v>
       </c>
       <c r="F75">
-        <v>0.01308217820565931</v>
+        <v>0.01198301955605215</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.05132706895722722</v>
+        <v>-0.006927544191587681</v>
       </c>
       <c r="C76">
-        <v>-0.05157926682615861</v>
+        <v>-0.001545341128956933</v>
       </c>
       <c r="D76">
-        <v>0.005226438734244888</v>
+        <v>0.001452758105541516</v>
       </c>
       <c r="E76">
-        <v>-0.03076073947893728</v>
+        <v>-0.006203615010793827</v>
       </c>
       <c r="F76">
-        <v>0.02761405582438781</v>
+        <v>0.003913168273154659</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06690922881237638</v>
+        <v>-0.08033510805430855</v>
       </c>
       <c r="C77">
-        <v>-0.02087718925721188</v>
+        <v>-0.01072593048011282</v>
       </c>
       <c r="D77">
-        <v>-0.03910495595476674</v>
+        <v>0.1084471266194261</v>
       </c>
       <c r="E77">
-        <v>0.04703030143650796</v>
+        <v>-0.03401449132389036</v>
       </c>
       <c r="F77">
-        <v>-0.106748886446886</v>
+        <v>0.03083185180418881</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.145249725158238</v>
+        <v>-0.1093936956420227</v>
       </c>
       <c r="C78">
-        <v>-0.1256121061095249</v>
+        <v>-0.04287362510325046</v>
       </c>
       <c r="D78">
-        <v>0.185919350954063</v>
+        <v>0.1173756712142337</v>
       </c>
       <c r="E78">
-        <v>-0.5580020592133396</v>
+        <v>-0.08872648004135544</v>
       </c>
       <c r="F78">
-        <v>-0.548248171871564</v>
+        <v>0.072098762769889</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1323531700411885</v>
+        <v>-0.1636266620626815</v>
       </c>
       <c r="C79">
-        <v>-0.09364338816139565</v>
+        <v>-0.0201161181303607</v>
       </c>
       <c r="D79">
-        <v>0.006791624679399631</v>
+        <v>0.02013556543146404</v>
       </c>
       <c r="E79">
-        <v>0.0003921076550019449</v>
+        <v>-0.04905079435307775</v>
       </c>
       <c r="F79">
-        <v>0.05475395937935684</v>
+        <v>0.01048076678188793</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06980854929746474</v>
+        <v>-0.0804760757035456</v>
       </c>
       <c r="C80">
-        <v>-0.06065856935083233</v>
+        <v>0.0006400984830889827</v>
       </c>
       <c r="D80">
-        <v>-0.08478608545785592</v>
+        <v>0.0558271463319344</v>
       </c>
       <c r="E80">
-        <v>0.09476168493740235</v>
+        <v>-0.03072467142367431</v>
       </c>
       <c r="F80">
-        <v>-0.0514617062206339</v>
+        <v>-0.01584556857369845</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1278000790613112</v>
+        <v>-0.1235929115493617</v>
       </c>
       <c r="C81">
-        <v>-0.09211471014463672</v>
+        <v>-0.03019181218037856</v>
       </c>
       <c r="D81">
-        <v>0.005803632666302361</v>
+        <v>0.01993125503151895</v>
       </c>
       <c r="E81">
-        <v>0.01905269973175809</v>
+        <v>-0.0614429393032383</v>
       </c>
       <c r="F81">
-        <v>-0.02104584507439963</v>
+        <v>0.001283942414105014</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1291639785269236</v>
+        <v>-0.1629587694957789</v>
       </c>
       <c r="C82">
-        <v>-0.06881300289271933</v>
+        <v>-0.02061035722203647</v>
       </c>
       <c r="D82">
-        <v>-0.01226504442575254</v>
+        <v>0.01681729216794996</v>
       </c>
       <c r="E82">
-        <v>0.0614594334421333</v>
+        <v>-0.03624567502164264</v>
       </c>
       <c r="F82">
-        <v>0.04847157559156581</v>
+        <v>0.0596934035949199</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0703380009715258</v>
+        <v>-0.06505090063018069</v>
       </c>
       <c r="C83">
-        <v>-0.09228268646844645</v>
+        <v>-0.003841606924507801</v>
       </c>
       <c r="D83">
-        <v>-0.0342425490551096</v>
+        <v>0.04835837222832046</v>
       </c>
       <c r="E83">
-        <v>0.1368322060676752</v>
+        <v>-0.002663885089947158</v>
       </c>
       <c r="F83">
-        <v>-0.005701978335321403</v>
+        <v>-0.04079641847292677</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05630595018670052</v>
+        <v>-0.06072317668435916</v>
       </c>
       <c r="C84">
-        <v>0.07944241160325498</v>
+        <v>-0.0113109680165556</v>
       </c>
       <c r="D84">
-        <v>-0.0370428703107142</v>
+        <v>0.05969991078978579</v>
       </c>
       <c r="E84">
-        <v>-0.1145754470455243</v>
+        <v>0.004458168665277608</v>
       </c>
       <c r="F84">
-        <v>-0.09907211715231024</v>
+        <v>0.01462136536637275</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1204514663491091</v>
+        <v>-0.1386466013530162</v>
       </c>
       <c r="C85">
-        <v>-0.06599959238492198</v>
+        <v>-0.02556835143613938</v>
       </c>
       <c r="D85">
-        <v>-0.003809242002178575</v>
+        <v>0.01642075908703566</v>
       </c>
       <c r="E85">
-        <v>0.007075220491304814</v>
+        <v>-0.04133276907804157</v>
       </c>
       <c r="F85">
-        <v>0.07141654723277915</v>
+        <v>0.04511730904958596</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08745496482975573</v>
+        <v>-0.09872503424376729</v>
       </c>
       <c r="C86">
-        <v>-0.01776778433936203</v>
+        <v>0.006711219222400667</v>
       </c>
       <c r="D86">
-        <v>0.0257058355118979</v>
+        <v>0.02085790895250299</v>
       </c>
       <c r="E86">
-        <v>-0.43508546172199</v>
+        <v>-0.1340937028671489</v>
       </c>
       <c r="F86">
-        <v>0.04211137679325067</v>
+        <v>-0.8463338063958331</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1159794734042654</v>
+        <v>-0.1001560080493159</v>
       </c>
       <c r="C87">
-        <v>-0.08643498445465057</v>
+        <v>-0.02558904713792414</v>
       </c>
       <c r="D87">
-        <v>0.0106323169954515</v>
+        <v>0.07314180427240639</v>
       </c>
       <c r="E87">
-        <v>0.03432382707798789</v>
+        <v>0.05213399427276328</v>
       </c>
       <c r="F87">
-        <v>-0.0665012596535646</v>
+        <v>0.08579064598604612</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05914831405623434</v>
+        <v>-0.06258015204862039</v>
       </c>
       <c r="C88">
-        <v>-0.06871468257004192</v>
+        <v>-0.003358267174712873</v>
       </c>
       <c r="D88">
-        <v>-0.04180341683726253</v>
+        <v>0.05355138331638528</v>
       </c>
       <c r="E88">
-        <v>0.04660471511281725</v>
+        <v>-0.02644118003997752</v>
       </c>
       <c r="F88">
-        <v>0.00368362482826906</v>
+        <v>0.008575047356833551</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2294657147251376</v>
+        <v>-0.1322954840827113</v>
       </c>
       <c r="C89">
-        <v>0.3666482404723249</v>
+        <v>-0.00611116228501955</v>
       </c>
       <c r="D89">
-        <v>0.05535995924212656</v>
+        <v>-0.2655046676463222</v>
       </c>
       <c r="E89">
-        <v>-0.02100425375875739</v>
+        <v>0.09139254440922318</v>
       </c>
       <c r="F89">
-        <v>-0.02430549791897946</v>
+        <v>0.02788629563902096</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1652608640345697</v>
+        <v>-0.142804450641786</v>
       </c>
       <c r="C90">
-        <v>0.2584641752292561</v>
+        <v>-0.02333566029832892</v>
       </c>
       <c r="D90">
-        <v>-0.01269903370525041</v>
+        <v>-0.2727383145272548</v>
       </c>
       <c r="E90">
-        <v>0.04494593776599075</v>
+        <v>0.106206123442973</v>
       </c>
       <c r="F90">
-        <v>0.01595220933707596</v>
+        <v>0.02904447247967337</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07941348928178169</v>
+        <v>-0.1173285704918508</v>
       </c>
       <c r="C91">
-        <v>-0.07480369127981351</v>
+        <v>-0.01636262169542745</v>
       </c>
       <c r="D91">
-        <v>-0.00753117773006926</v>
+        <v>-0.003885664389091802</v>
       </c>
       <c r="E91">
-        <v>-0.004452381503122015</v>
+        <v>-0.05940657833120825</v>
       </c>
       <c r="F91">
-        <v>0.01083370816474786</v>
+        <v>-0.02459687915738591</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1895367216430416</v>
+        <v>-0.1463468485012084</v>
       </c>
       <c r="C92">
-        <v>0.2985583994356974</v>
+        <v>-0.01507906377480635</v>
       </c>
       <c r="D92">
-        <v>0.02479129543874509</v>
+        <v>-0.3059274968850237</v>
       </c>
       <c r="E92">
-        <v>0.03628681333595032</v>
+        <v>0.1018078825941108</v>
       </c>
       <c r="F92">
-        <v>-0.07789116227866057</v>
+        <v>0.02499003040584436</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1759904159914121</v>
+        <v>-0.1468339390143377</v>
       </c>
       <c r="C93">
-        <v>0.3037043779862683</v>
+        <v>-0.01967346131323903</v>
       </c>
       <c r="D93">
-        <v>-0.04414349138820304</v>
+        <v>-0.2751238658757253</v>
       </c>
       <c r="E93">
-        <v>0.03768964835585469</v>
+        <v>0.07217636430587665</v>
       </c>
       <c r="F93">
-        <v>-0.02411674085113475</v>
+        <v>0.02165985118586829</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1216756692201022</v>
+        <v>-0.1333984922562028</v>
       </c>
       <c r="C94">
-        <v>-0.08309333031037461</v>
+        <v>-0.02354145849819159</v>
       </c>
       <c r="D94">
-        <v>0.01144394475871934</v>
+        <v>0.04737969682234026</v>
       </c>
       <c r="E94">
-        <v>-0.006350171451597901</v>
+        <v>-0.06209738579629819</v>
       </c>
       <c r="F94">
-        <v>0.04781269529266008</v>
+        <v>0.02972011845453343</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1145165572703938</v>
+        <v>-0.1269401909504686</v>
       </c>
       <c r="C95">
-        <v>-0.06268360057345426</v>
+        <v>-0.005790771250844499</v>
       </c>
       <c r="D95">
-        <v>0.02357559556659792</v>
+        <v>0.08988796458430688</v>
       </c>
       <c r="E95">
-        <v>-0.09574502112737782</v>
+        <v>-0.04344523178520737</v>
       </c>
       <c r="F95">
-        <v>-0.09850738079028228</v>
+        <v>-0.01229528493281694</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0004837211551830597</v>
+        <v>-0.09614507250716979</v>
       </c>
       <c r="C96">
-        <v>-0.001541299985393119</v>
+        <v>0.9892519427200758</v>
       </c>
       <c r="D96">
-        <v>-0.000360008782598341</v>
+        <v>-0.02173423081041749</v>
       </c>
       <c r="E96">
-        <v>-0.004727389666305169</v>
+        <v>-0.05917186070200892</v>
       </c>
       <c r="F96">
-        <v>-0.004830802369475015</v>
+        <v>0.04843525705508588</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1257399299496937</v>
+        <v>-0.1868303491629599</v>
       </c>
       <c r="C97">
-        <v>-0.06002792517320349</v>
+        <v>0.01174552581330484</v>
       </c>
       <c r="D97">
-        <v>0.05655040339720359</v>
+        <v>-0.01058709755047708</v>
       </c>
       <c r="E97">
-        <v>0.2967187621855961</v>
+        <v>-0.0170206336541701</v>
       </c>
       <c r="F97">
-        <v>-0.2073610002959999</v>
+        <v>-0.1755229880181336</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2329884816444635</v>
+        <v>-0.2061329828461165</v>
       </c>
       <c r="C98">
-        <v>-0.09194346305928494</v>
+        <v>-0.006844800889322673</v>
       </c>
       <c r="D98">
-        <v>0.09914978951505943</v>
+        <v>0.01509283453221787</v>
       </c>
       <c r="E98">
-        <v>-0.09544846658181314</v>
+        <v>0.09132018965136075</v>
       </c>
       <c r="F98">
-        <v>0.1261261745115069</v>
+        <v>-0.1306668761611389</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06698301635332309</v>
+        <v>-0.05800677721461873</v>
       </c>
       <c r="C99">
-        <v>-0.05484624044097286</v>
+        <v>0.003223933765628109</v>
       </c>
       <c r="D99">
-        <v>0.008610746443299441</v>
+        <v>0.03430930889234307</v>
       </c>
       <c r="E99">
-        <v>-0.0444829188172964</v>
+        <v>-0.02650477385091691</v>
       </c>
       <c r="F99">
-        <v>0.03398304394526419</v>
+        <v>0.005000370077776519</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.004276703792791358</v>
+        <v>-0.1246745358853632</v>
       </c>
       <c r="C100">
-        <v>0.001427872636455454</v>
+        <v>0.04860162194599265</v>
       </c>
       <c r="D100">
-        <v>-0.005388160433903806</v>
+        <v>0.3283300354135164</v>
       </c>
       <c r="E100">
-        <v>0.03166360242293546</v>
+        <v>0.9031624068284934</v>
       </c>
       <c r="F100">
-        <v>-0.01647075513965795</v>
+        <v>-0.05807911285818113</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03429002604320382</v>
+        <v>-0.02726074270146546</v>
       </c>
       <c r="C101">
-        <v>-0.03365884915609769</v>
+        <v>-0.009267756562110535</v>
       </c>
       <c r="D101">
-        <v>-0.02170338698963133</v>
+        <v>0.03013571472221003</v>
       </c>
       <c r="E101">
-        <v>0.02538399851267246</v>
+        <v>-0.008910912081812234</v>
       </c>
       <c r="F101">
-        <v>-0.04730325915134269</v>
+        <v>-0.01126890831191271</v>
       </c>
     </row>
     <row r="102" spans="1:6">
